--- a/PointsTiming/التجمع/Daily/تجمع يوم 19-12-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 19-12-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -2045,7 +2045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2197,7 +2197,6 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2717,7 +2716,7 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2737,17 +2736,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:6">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="47"/>
@@ -2757,7 +2756,7 @@
       <c r="F2" s="48"/>
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="49"/>
@@ -2767,7 +2766,7 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="1:6">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2784,7 @@
       </c>
     </row>
     <row r="5" ht="14.45" customHeight="1" spans="1:6">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2803,196 +2802,196 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:8">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="86"/>
-      <c r="H6" s="93"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="85"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" ht="18.5" spans="1:6">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="86"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" ht="18.5" spans="1:6">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="86"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" ht="18.5" spans="1:6">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85">
         <v>0.340277777777777</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="86">
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="85">
         <v>0.350694444444444</v>
       </c>
     </row>
     <row r="10" ht="18.5" spans="1:6">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="86"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="85"/>
     </row>
     <row r="11" ht="18.5" spans="1:6">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85">
         <v>0.423611111111111</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="86"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" ht="18.5" spans="1:6">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" ht="18.5" spans="1:6">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85">
         <v>0.506944444444444</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" ht="18.5" spans="1:6">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="85">
         <v>0.541666666666667</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="86">
+      <c r="C14" s="85"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="85">
         <v>0.559027777777778</v>
       </c>
     </row>
     <row r="15" ht="18.5" spans="1:6">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="86"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" ht="18.5" spans="1:6">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="86"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" ht="18.5" spans="1:6">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="86"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" ht="18.5" spans="1:8">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="H18" s="96"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" ht="18.5" spans="1:6">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="85"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="86">
+      <c r="B21" s="85">
         <v>0.833333333333333</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="85">
         <v>0.840277777777778</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="86"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="85"/>
     </row>
     <row r="22" ht="18.5" spans="1:7">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" ht="18.5" spans="1:6">
-      <c r="A23" s="86"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="39"/>
@@ -3000,7 +2999,7 @@
       <c r="F23" s="25"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A24" s="86"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="39"/>
@@ -3008,7 +3007,7 @@
       <c r="F24" s="25"/>
     </row>
     <row r="25" ht="18.5" spans="1:6">
-      <c r="A25" s="86"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="39"/>
@@ -3016,7 +3015,7 @@
       <c r="F25" s="25"/>
     </row>
     <row r="26" ht="18.5" spans="1:6">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="39"/>
@@ -3024,7 +3023,7 @@
       <c r="F26" s="25"/>
     </row>
     <row r="27" ht="18.5" spans="1:6">
-      <c r="A27" s="86"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="39"/>
@@ -3032,7 +3031,7 @@
       <c r="F27" s="25"/>
     </row>
     <row r="28" ht="18.5" spans="1:6">
-      <c r="A28" s="86"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="39"/>
@@ -3040,7 +3039,7 @@
       <c r="F28" s="25"/>
     </row>
     <row r="29" ht="18.5" spans="1:6">
-      <c r="A29" s="86"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="39"/>
@@ -3048,7 +3047,7 @@
       <c r="F29" s="25"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A30" s="86"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="39"/>
@@ -3056,7 +3055,7 @@
       <c r="F30" s="25"/>
     </row>
     <row r="31" ht="18.5" spans="1:6">
-      <c r="A31" s="86"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="39"/>
@@ -3064,7 +3063,7 @@
       <c r="F31" s="25"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A32" s="86"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="39"/>
@@ -3072,7 +3071,7 @@
       <c r="F32" s="25"/>
     </row>
     <row r="33" ht="18.5" spans="1:6">
-      <c r="A33" s="86"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="39"/>
@@ -3080,7 +3079,7 @@
       <c r="F33" s="25"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="86"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="39"/>
@@ -3088,7 +3087,7 @@
       <c r="F34" s="25"/>
     </row>
     <row r="35" ht="18.5" hidden="1" spans="1:6">
-      <c r="A35" s="122"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="39"/>
@@ -3096,7 +3095,7 @@
       <c r="F35" s="25"/>
     </row>
     <row r="36" ht="18.5" hidden="1" spans="1:6">
-      <c r="A36" s="123"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="39"/>
@@ -3104,7 +3103,7 @@
       <c r="F36" s="25"/>
     </row>
     <row r="37" ht="18.5" spans="1:6">
-      <c r="A37" s="86"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="39"/>
@@ -3112,7 +3111,7 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" ht="18.5" spans="1:6">
-      <c r="A38" s="86"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="39"/>
@@ -3217,12 +3216,12 @@
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="20"/>
@@ -3259,17 +3258,17 @@
         <v>96</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" ht="15.5" spans="1:5">
       <c r="A7" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
@@ -3306,15 +3305,15 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
-      <c r="G10" s="93"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" ht="15.5" spans="1:5">
       <c r="A11" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="95"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="22"/>
     </row>
     <row r="12" ht="15.5" spans="1:7">
@@ -3325,7 +3324,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="G12" s="96"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5">
       <c r="A13" s="25" t="s">
@@ -3350,7 +3349,7 @@
         <v>183</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="52"/>
       <c r="E15" s="22"/>
     </row>
@@ -3361,11 +3360,11 @@
       <c r="B16" s="22">
         <v>0.0555555555555556</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="52">
         <v>0.565972222222222</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" ht="15.5" spans="1:5">
       <c r="A17" s="25" t="s">
@@ -3374,54 +3373,54 @@
       <c r="B17" s="22">
         <v>0.625</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="60"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" ht="15.5" spans="1:5">
       <c r="A18" s="25" t="s">
         <v>186</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" ht="15.5" spans="1:5">
       <c r="A19" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B19" s="22"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" ht="15.5" spans="1:5">
       <c r="A20" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="60"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" ht="15.5" spans="1:5">
       <c r="A21" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" ht="15.5" spans="1:5">
       <c r="A22" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="60"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" ht="15.5" spans="1:5">
       <c r="A23" s="25" t="s">
@@ -3581,15 +3580,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
       <c r="A2" s="27" t="s">
@@ -3658,374 +3657,374 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:7">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86">
         <v>0.934027777777778</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" ht="18.5" spans="1:7">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" ht="18.5" spans="1:7">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" ht="18.5" spans="1:7">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="87"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" ht="18.5" spans="1:8">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>0.305555555555555</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="86">
         <v>0.309027777777778</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="86">
         <v>0.309027777777778</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="86">
         <v>0.319444444444444</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="86">
         <v>0.322916666666667</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="86">
         <v>0.333333333333333</v>
       </c>
       <c r="H10" s="44"/>
     </row>
     <row r="11" ht="18.5" spans="1:7">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="86">
         <v>0.347222222222222</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="86">
         <v>0.350694444444444</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="86">
         <v>0.350694444444445</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="86">
         <v>0.361111111111111</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="86">
         <v>0.364583333333333</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="86">
         <v>0.375</v>
       </c>
     </row>
     <row r="12" ht="18.5" spans="1:7">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="85" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" ht="18.5" spans="1:8">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="86">
         <v>0.388888888888889</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87">
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86">
         <v>0.40625</v>
       </c>
-      <c r="G13" s="87"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" ht="18.5" spans="1:8">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86">
         <v>0.434027777777778</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86">
         <v>0.458333333333333</v>
       </c>
       <c r="H14" s="24"/>
     </row>
     <row r="15" ht="18.5" spans="1:7">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" ht="18.5" spans="1:8">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86">
         <v>0.517361111111111</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87">
+      <c r="D16" s="86"/>
+      <c r="E16" s="86">
         <v>0.527777777777778</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="87">
         <v>0.53125</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="86">
         <v>0.541666666666667</v>
       </c>
       <c r="H16" s="44"/>
     </row>
     <row r="17" ht="18.5" spans="1:7">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="87"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="18" ht="18.5" spans="1:7">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="87">
+      <c r="B18" s="86">
         <v>0.555555555555556</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87">
+      <c r="C18" s="86"/>
+      <c r="D18" s="86">
         <v>0.559027777777778</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88">
+      <c r="E18" s="86"/>
+      <c r="F18" s="87">
         <v>0.572916666666667</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="88">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="19" ht="18.5" spans="1:7">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="87"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" ht="18.5" spans="1:7">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86">
         <v>0.61111111111111</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" ht="18.5" spans="1:7">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="86">
         <v>0.638888888888889</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87">
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86">
         <v>0.652777777777777</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" ht="18.5" spans="1:7">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87">
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86">
         <v>0.694444444444444</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87">
+      <c r="F22" s="86"/>
+      <c r="G22" s="86">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="23" ht="18.5" spans="1:8">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86">
         <v>0.739583333333333</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="24"/>
     </row>
     <row r="24" ht="18.5" spans="1:7">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
       <c r="G24" s="37"/>
     </row>
     <row r="25" ht="18.5" spans="1:7">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="87">
+      <c r="B25" s="86">
         <v>0.763888888888889</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86">
         <v>0.777777777777778</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" ht="18.5" spans="1:7">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86">
         <v>0.809027777777778</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" ht="18.5" spans="1:7">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86">
         <v>0.864583333333333</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="86">
         <v>0.875</v>
       </c>
     </row>
     <row r="28" ht="18.5" spans="1:7">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86">
         <v>0.902777777777778</v>
       </c>
-      <c r="F28" s="87">
+      <c r="F28" s="86">
         <v>0.90625</v>
       </c>
-      <c r="G28" s="87"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" ht="18.5" spans="1:7">
       <c r="A29" s="37"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" ht="18.5" spans="1:7">
       <c r="A30" s="37"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" ht="18.5" spans="2:7">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" ht="18.5" spans="1:7">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="33" ht="15.5" spans="2:7">
       <c r="B33" s="25"/>
@@ -4163,17 +4162,17 @@
       <c r="F1" s="48"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4185,7 +4184,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="82"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="4" t="s">
         <v>218</v>
       </c>
@@ -4203,7 +4202,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="67"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5" t="s">
         <v>223</v>
       </c>
@@ -4279,8 +4278,8 @@
         <v>69</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" ht="15.5" spans="1:6">
@@ -4432,7 +4431,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="37"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -4440,7 +4439,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="37"/>
-      <c r="B25" s="83"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -4448,7 +4447,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="37"/>
-      <c r="B26" s="84"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -4470,7 +4469,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:6">
       <c r="A29" s="6"/>
-      <c r="B29" s="83"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4478,7 +4477,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:6">
       <c r="A30" s="6"/>
-      <c r="B30" s="83"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4694,13 +4693,13 @@
       <c r="E1" s="19"/>
     </row>
     <row r="2" ht="18.5" spans="1:5">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:5">
       <c r="A3" s="35" t="s">
@@ -4748,7 +4747,7 @@
       <c r="B6" s="15"/>
       <c r="C6" s="11"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="60"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" ht="15.5" spans="1:5">
       <c r="A7" s="6" t="s">
@@ -4844,7 +4843,7 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="60"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" ht="15.5" spans="1:5">
       <c r="A16" s="23" t="s">
@@ -4855,7 +4854,7 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="60"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" ht="15.5" spans="1:5">
       <c r="A17" s="23" t="s">
@@ -4866,7 +4865,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="60"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" ht="15.5" spans="1:5">
       <c r="A18" s="23" t="s">
@@ -4875,7 +4874,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="11"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="60"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" ht="15.5" spans="1:5">
       <c r="A19" s="23" t="s">
@@ -4884,7 +4883,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="60"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" ht="15.5" spans="1:5">
       <c r="A20" s="23" t="s">
@@ -4893,7 +4892,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="60"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" ht="15.5" spans="1:5">
       <c r="A21" s="23" t="s">
@@ -4902,7 +4901,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="11"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="60"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" ht="15.5" spans="1:5">
       <c r="A22" s="25" t="s">
@@ -4913,7 +4912,7 @@
       <c r="D22" s="15">
         <v>0.854166666666667</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" ht="15.5" spans="1:5">
       <c r="A23" s="25" t="s">
@@ -4922,7 +4921,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="11"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="60"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="11"/>
@@ -5065,57 +5064,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:12">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" ht="18.5" spans="1:12">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" ht="15.5" spans="1:12">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="72"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" ht="15.5" spans="1:12">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4" t="s">
         <v>236</v>
       </c>
@@ -5151,7 +5150,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:12">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>245</v>
       </c>
@@ -5193,9 +5192,9 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" ht="15.5" spans="1:12">
@@ -5209,9 +5208,9 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="15.5" spans="1:12">
@@ -5233,9 +5232,9 @@
         <v>0.309027777777778</v>
       </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="73"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="25">
         <v>0.319444444444444</v>
       </c>
@@ -5244,13 +5243,13 @@
       <c r="A9" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -5269,8 +5268,8 @@
       <c r="D10" s="25">
         <v>0.340277777777778</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -5282,7 +5281,7 @@
       <c r="A11" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="25"/>
       <c r="E11" s="36"/>
       <c r="F11" s="25"/>
@@ -5292,9 +5291,9 @@
       <c r="H11" s="25">
         <v>0.354166666666667</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="73"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="25">
         <v>0.361111111111111</v>
       </c>
@@ -5306,8 +5305,8 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -5331,9 +5330,9 @@
       <c r="H13" s="25">
         <v>0.395833333333333</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="73"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="25">
         <v>0.402777777777778</v>
       </c>
@@ -5349,9 +5348,9 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="73"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="25"/>
     </row>
     <row r="15" ht="15.5" spans="1:12">
@@ -5375,9 +5374,9 @@
       <c r="H15" s="25">
         <v>0.4375</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="73"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="25">
         <v>0.444444444444444</v>
       </c>
@@ -5394,7 +5393,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="39"/>
       <c r="L16" s="25">
         <v>0.444444444444444</v>
@@ -5412,7 +5411,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="22"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="75"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="39"/>
       <c r="L17" s="22"/>
     </row>
@@ -5431,9 +5430,9 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="60"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="22"/>
       <c r="N18" s="24"/>
     </row>
@@ -5446,11 +5445,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="37"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="70"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="77"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="70"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" ht="15.5" spans="1:12">
       <c r="A20" s="23" t="s">
@@ -5471,7 +5470,7 @@
         <v>0.5625</v>
       </c>
       <c r="I20" s="39"/>
-      <c r="J20" s="75"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="39"/>
       <c r="L20" s="25">
         <v>0.569444444444444</v>
@@ -5490,7 +5489,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="75"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="39"/>
       <c r="L21" s="37"/>
     </row>
@@ -5508,7 +5507,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="I22" s="39"/>
-      <c r="J22" s="75"/>
+      <c r="J22" s="74"/>
       <c r="K22" s="39"/>
       <c r="L22" s="25">
         <v>0.611111111111111</v>
@@ -5528,7 +5527,7 @@
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="75"/>
+      <c r="J23" s="74"/>
       <c r="K23" s="39"/>
       <c r="L23" s="25"/>
     </row>
@@ -5543,9 +5542,9 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="73"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="25"/>
     </row>
     <row r="25" ht="15.5" spans="1:12">
@@ -5559,9 +5558,9 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="73"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="25"/>
     </row>
     <row r="26" ht="15.5" spans="1:12">
@@ -5575,9 +5574,9 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="73"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="25"/>
     </row>
     <row r="27" ht="15.5" spans="1:12">
@@ -5591,9 +5590,9 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" ht="15.5" spans="1:12">
@@ -5608,7 +5607,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="75"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="39"/>
       <c r="L28" s="25">
         <v>0.861111111111111</v>
@@ -5628,7 +5627,7 @@
         <v>0.895833333333333</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="75"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="39"/>
       <c r="L29" s="25"/>
     </row>
@@ -5707,7 +5706,7 @@
       <c r="L34" s="15"/>
     </row>
     <row r="35" ht="15.5" spans="1:12">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="70" t="s">
         <v>265</v>
       </c>
       <c r="B35" s="15"/>
@@ -5723,7 +5722,7 @@
       <c r="L35" s="15"/>
     </row>
     <row r="36" ht="15.5" spans="1:12">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="70" t="s">
         <v>266</v>
       </c>
       <c r="B36" s="15"/>
@@ -5860,7 +5859,7 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" ht="15.5" spans="1:12">
-      <c r="A45" s="71"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -6217,8 +6216,8 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="25" t="s">
@@ -6247,7 +6246,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" ht="15.5" spans="1:8">
       <c r="A13" s="25" t="s">
@@ -6484,121 +6483,121 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" ht="15.5" spans="1:8">
       <c r="A30" s="23"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" ht="15.5" spans="1:8">
       <c r="A32" s="23"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" ht="15.5" spans="1:8">
       <c r="A33" s="23"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" ht="15.5" spans="1:8">
       <c r="A34" s="23"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" ht="15.5" spans="1:8">
       <c r="A35" s="23"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" ht="16.5" customHeight="1" spans="1:8">
       <c r="A36" s="23"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:8">
       <c r="A37" s="25"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="1:8">
       <c r="A38" s="25"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" ht="15.5" spans="1:8">
       <c r="A39" s="25"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" ht="15.5" hidden="1" spans="1:8">
       <c r="A40" s="6" t="s">
@@ -6711,12 +6710,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" ht="18.5" spans="1:4">
       <c r="A2" s="27" t="s">
@@ -6859,7 +6858,7 @@
       <c r="A16" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
@@ -6871,7 +6870,7 @@
       <c r="C17" s="22">
         <v>0.701388888888889</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="25" t="s">
@@ -6889,31 +6888,31 @@
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="60"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="59"/>
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="25"/>
@@ -7288,8 +7287,8 @@
       <c r="D20" s="25">
         <v>0.583333333333333</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:6">
       <c r="A21" s="25" t="s">
@@ -7386,7 +7385,7 @@
         <v>0.795138888888889</v>
       </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" ht="17" customHeight="1" spans="1:6">
       <c r="A28" s="23" t="s">
@@ -7463,7 +7462,7 @@
       <c r="F34" s="39"/>
     </row>
     <row r="35" ht="15.5" hidden="1" spans="1:6">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="11"/>
@@ -7495,7 +7494,7 @@
       <c r="F38" s="11"/>
     </row>
     <row r="40" ht="18.5" spans="1:6">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>325</v>
       </c>
       <c r="B40" s="2"/>
@@ -7958,10 +7957,10 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -8165,7 +8164,9 @@
         <v>45</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25">
+        <v>0.649305555555556</v>
+      </c>
       <c r="D17" s="25">
         <v>0.652777777777778</v>
       </c>
@@ -9839,7 +9840,7 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
-      <c r="D6" s="115"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -9879,7 +9880,7 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="115"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -9981,8 +9982,8 @@
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" ht="15.5" spans="1:7">
       <c r="A17" s="6" t="s">
@@ -10213,7 +10214,7 @@
       <c r="A38" s="6"/>
     </row>
     <row r="39" ht="15.75" hidden="1" customHeight="1" spans="1:7">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="76" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="17"/>
@@ -10451,7 +10452,7 @@
       <c r="C13" s="36"/>
       <c r="D13" s="25"/>
       <c r="E13" s="17"/>
-      <c r="H13" s="96"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" ht="15.5" spans="1:5">
       <c r="A14" s="23" t="s">
@@ -10806,10 +10807,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="104" customWidth="1"/>
-    <col min="2" max="2" width="15" style="105" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="105" customWidth="1"/>
-    <col min="4" max="4" width="10.5727272727273" style="105" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="103" customWidth="1"/>
+    <col min="2" max="2" width="15" style="104" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="104" customWidth="1"/>
+    <col min="4" max="4" width="10.5727272727273" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -10829,41 +10830,41 @@
       <c r="D2" s="29"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" ht="18.5" spans="1:4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="106" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" ht="18.5" spans="1:4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="108" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="25">
@@ -10873,7 +10874,7 @@
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="108" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="25"/>
@@ -10881,7 +10882,7 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="108" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="25"/>
@@ -10891,7 +10892,7 @@
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="108" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="25">
@@ -10903,10 +10904,10 @@
       <c r="D9" s="25">
         <v>0.3125</v>
       </c>
-      <c r="G9" s="110"/>
+      <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="108" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="25">
@@ -10918,10 +10919,10 @@
       <c r="D10" s="25">
         <v>0.354166666666667</v>
       </c>
-      <c r="G10" s="110"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="108" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="25"/>
@@ -10929,10 +10930,10 @@
         <v>0.392361111111111</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="109"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="110" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25"/>
@@ -10942,26 +10943,26 @@
       <c r="D12" s="25">
         <v>0.4375</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="39"/>
       <c r="D13" s="25"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="111" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="109"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="23" t="s">
@@ -11090,28 +11091,28 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="23"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="114"/>
+      <c r="D32" s="113"/>
     </row>
     <row r="33" ht="17.25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="39">
         <v>0.909722222222222</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="112"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="105">
+      <c r="C36" s="104">
         <v>0</v>
       </c>
     </row>
@@ -11192,17 +11193,17 @@
       <c r="F1" s="48"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -11214,7 +11215,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.5" spans="1:6">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4" t="s">
         <v>111</v>
       </c>
@@ -11232,7 +11233,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>116</v>
       </c>
@@ -11260,7 +11261,7 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:6">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="17"/>
@@ -11307,8 +11308,8 @@
       <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
@@ -11554,7 +11555,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" ht="15.5" spans="1:6">
-      <c r="A37" s="102"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -11586,7 +11587,7 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" ht="15.5" spans="1:6">
-      <c r="A41" s="102"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -11808,8 +11809,8 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:8">
       <c r="A10" s="25" t="s">
@@ -11817,7 +11818,7 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="99"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="17"/>
       <c r="H10" s="24"/>
     </row>
@@ -11844,7 +11845,7 @@
         <v>139</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="97"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="25"/>
       <c r="E13" s="17"/>
     </row>
@@ -12046,18 +12047,18 @@
       <c r="G1" s="28"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -12070,7 +12071,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="15.5" spans="1:7">
-      <c r="A4" s="69"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
@@ -12091,7 +12092,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="69"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>156</v>
       </c>
@@ -12131,7 +12132,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="97"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -12164,7 +12165,7 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" ht="15.5" spans="1:7">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="25">
@@ -12233,7 +12234,7 @@
       <c r="A15" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="25">
         <v>0.65625</v>
       </c>
